--- a/sheets/AI.xlsx
+++ b/sheets/AI.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">The AI business is not just limited to nvda, chip players , it goes to the very bottom from the conversion of sand to wafers to pcb to embedded systems to chips </t>
   </si>
@@ -33,6 +33,12 @@
   </si>
   <si>
     <t xml:space="preserve">AIC etf caters all this .. so maybe that is an good opportunity to invest in !! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIQ etf  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">US etf that caters AI and other sectors</t>
   </si>
 </sst>
 </file>
@@ -590,7 +596,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="16384" style="1" width="9.140625"/>
   </cols>
@@ -618,6 +624,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="9" ht="16.5">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/sheets/AI.xlsx
+++ b/sheets/AI.xlsx
@@ -7,8 +7,11 @@
   </bookViews>
   <sheets>
     <sheet name="Business" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NVDA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="AMD" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="NVDA-main" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Marvell tech" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TSMC" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="NVDA" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="AMD" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr/>
   <extLst>
@@ -18,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t xml:space="preserve">The AI business is not just limited to nvda, chip players , it goes to the very bottom from the conversion of sand to wafers to pcb to embedded systems to chips </t>
   </si>
@@ -39,13 +42,208 @@
   </si>
   <si>
     <t xml:space="preserve">US etf that caters AI and other sectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIQ ETF mimics Indxx AI fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This holding has few of the raw materials companies that work </t>
+  </si>
+  <si>
+    <t xml:space="preserve">More of the holding are for companies that go out and make AI work for people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full stack computing infrastructure company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leaders in cloud service providers used nvda data center scale accelerated computing platform </t>
+  </si>
+  <si>
+    <t xml:space="preserve">75% of the supercomputers on the global top 500 list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data centers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">consisting of network adapters, cables, DPUs, switch chips and systems, as well as a full software stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaming </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professional viz</t>
+  </si>
+  <si>
+    <t>Automotive</t>
+  </si>
+  <si>
+    <t>Competitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suppliers + licensors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMD, Huawei Tech , Intel corp </t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alibaba , alphabet , amazon, baidu , huawei, MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arm based CPU's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SoC : system on chip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">suppliers of hardware and software SoC products used in servers + embedded devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambarella, AMD, Broadcom , intel , qualcomm, renesas electronics corporation, samsugn, .. Tesla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cable solutions + switches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arista networks , cisco systems , HP enterprise , lumenutum holdings, marvell tech </t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficient Chip designs for GPU / AI workload , using AI in play to do that , for a GPU data center ( </t>
+  </si>
+  <si>
+    <t xml:space="preserve">70% will be GPU chips rest will be the Marvell tech load , connecting to cloud etc ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">General purpose ( one size fit all ) , end-user systems </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The value of NVDA is in the Chip design , that's the IP</t>
+  </si>
+  <si>
+    <t>Marvell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specialises in data centers ,chip for movement of data, 5G , etethernet etc .. the core computer part </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creates customized chips and specialises in networks for faster data transmission </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom chips + super fast data pipelines </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Builds custom chips for enterprises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabless model : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marvell design the chips, create architecture , layout and functionality and they do not own the factories for making these chips that part is done by TSMC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foundry = TSMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marvell designs chips and sells them to companies like Seagate, WD, Apple, Nokia, Samsung—who then integrate them into their products. This is classic B2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabless model: They don’t own chip factories; they design chips and outsource manufacturing to foundries like TSMC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marvell holds ths IP for designs and TSMC is also in aggrement to not disclose the designs + extensive research from Marvell stand out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The IP for marvell is in designing chips specifically for data centers and not just GPU chip designs but other tasks like increasing the efficiency of the network bandwidth and high speed transfers </t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyperscalers, cloud providers, data center operators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is not designing chips , the designing happens from companies like @marvell tech , this is a hardcore manufacturing business , where they have factories + cheap labours that are educated on how to operate these machines and make them work </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSMC runs massive “fabs” (fabrication plants) equipped with ultra-high-tech machines (like photolithography, etchers, dopers) to turn silicon wafers into chips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building and operating a fab costs tens of billions of dollars — enter TSMC, which offers this as a specialized service </t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silicon extraction from sand , extract SiO2, refined to produce high purity silicon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wafer production : melt + crystalize into cylindrical ingots to 300mm wafers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photolithography: EUV lithography to project intricate circuit patterns onto wafer surface </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etching and Deposition : etcher sto carve out transistors structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doping and ion implanatation : to create a working transistor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metal layers are added for interconection between transistors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Packaging </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipment supplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lithography machines = ASML </t>
+  </si>
+  <si>
+    <t>POSSIBILITIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSMC in Taiwan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">China includes Taiwan in them </t>
+  </si>
+  <si>
+    <t xml:space="preserve">China can threaten TSMC to leak designs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">China attacking Taiwan or TSMC , no more chips </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global market for GPU fells down , no more chips , heavy losses for TSMC, supply disruption that will bounce back </t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA BEING USA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSMC said it would increase its existing US investment by $100bn, building five new “cutting edge” facilities on US soil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">but will keep its most advanced manufacturing processes in Taiwan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -54,6 +252,30 @@
     </font>
     <font>
       <sz val="12.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -79,9 +301,19 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,6 +864,21 @@
         <v>6</v>
       </c>
     </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -647,8 +894,128 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" style="2" width="16.28125"/>
+    <col min="2" max="16384" style="2" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="18.75">
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75">
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="18.75">
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75">
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75">
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75">
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" ht="18.75">
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75">
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" ht="18.75">
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75">
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" ht="18.75">
+      <c r="B26" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" ht="18.75">
+      <c r="B27" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" ht="18.75">
+      <c r="B28" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" ht="18.75">
+      <c r="B30" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" ht="18.75">
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="0" copies="1"/>
@@ -664,6 +1031,258 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="2" ht="14.25">
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="B10" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="B19" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="B22" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25"/>
+    <row r="28" ht="14.25">
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="B31" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" ht="15"/>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/sheets/AI.xlsx
+++ b/sheets/AI.xlsx
@@ -21,7 +21,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
   <si>
     <t xml:space="preserve">The AI business is not just limited to nvda, chip players , it goes to the very bottom from the conversion of sand to wafers to pcb to embedded systems to chips </t>
   </si>
@@ -824,7 +827,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -833,50 +836,55 @@
     <col min="1" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
+    <row r="1" ht="16.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" ht="16.5">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" ht="16.5">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" ht="16.5">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5">
       <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5">
       <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -902,117 +910,117 @@
   <sheetData>
     <row r="2" ht="18.75">
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" ht="18.75">
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="18.75">
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" ht="18.75">
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" ht="18.75">
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="18.75">
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="18.75">
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="18.75">
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" ht="18.75">
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="18.75">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="18.75">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="18.75">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="18.75">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="18.75">
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="18.75">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="18.75">
       <c r="B26" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="18.75">
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" ht="18.75">
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" ht="18.75">
       <c r="B30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" ht="18.75">
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1034,52 +1042,52 @@
   <sheetData>
     <row r="2">
       <c r="B2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
@@ -1087,27 +1095,27 @@
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1129,103 +1137,103 @@
   <sheetData>
     <row r="2" ht="14.25">
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" ht="14.25">
       <c r="B3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="B5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="B7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="B10" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="B12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="B13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="B14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="B15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="B16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="B17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="B19" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="B20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="B22" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" ht="14.25">
       <c r="B23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="B24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" ht="14.25">
       <c r="B25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="B26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" ht="14.25"/>
     <row r="28" ht="14.25">
       <c r="B28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" ht="14.25">
@@ -1236,17 +1244,17 @@
     </row>
     <row r="31" ht="14.25">
       <c r="B31" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" ht="14.25">
       <c r="B32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" ht="14.25">
       <c r="B33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
